--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Inha-Tgfbr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Inha-Tgfbr3.xlsx
@@ -543,10 +543,10 @@
         <v>0.803384</v>
       </c>
       <c r="I2">
-        <v>0.3937234314704692</v>
+        <v>0.6944570264822121</v>
       </c>
       <c r="J2">
-        <v>0.3937234314704692</v>
+        <v>0.6944570264822121</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.68145933333333</v>
+        <v>28.689524</v>
       </c>
       <c r="N2">
-        <v>71.04437799999999</v>
+        <v>86.06857199999999</v>
       </c>
       <c r="O2">
-        <v>0.2340556429375698</v>
+        <v>0.2394085694101769</v>
       </c>
       <c r="P2">
-        <v>0.2340556429375698</v>
+        <v>0.2394085694101769</v>
       </c>
       <c r="Q2">
-        <v>6.341768508350222</v>
+        <v>7.682901516405332</v>
       </c>
       <c r="R2">
-        <v>57.07591657515199</v>
+        <v>69.14611364764799</v>
       </c>
       <c r="S2">
-        <v>0.09215319089240687</v>
+        <v>0.1662589632269517</v>
       </c>
       <c r="T2">
-        <v>0.09215319089240688</v>
+        <v>0.1662589632269517</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>0.803384</v>
       </c>
       <c r="I3">
-        <v>0.3937234314704692</v>
+        <v>0.6944570264822121</v>
       </c>
       <c r="J3">
-        <v>0.3937234314704692</v>
+        <v>0.6944570264822121</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +623,10 @@
         <v>187.398952</v>
       </c>
       <c r="O3">
-        <v>0.6173856880862099</v>
+        <v>0.5212694246546397</v>
       </c>
       <c r="P3">
-        <v>0.6173856880862099</v>
+        <v>0.5212694246546395</v>
       </c>
       <c r="Q3">
         <v>16.72814662817422</v>
@@ -635,10 +635,10 @@
         <v>150.553319653568</v>
       </c>
       <c r="S3">
-        <v>0.2430792116540593</v>
+        <v>0.3619992146417546</v>
       </c>
       <c r="T3">
-        <v>0.2430792116540594</v>
+        <v>0.3619992146417545</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>0.803384</v>
       </c>
       <c r="I4">
-        <v>0.3937234314704692</v>
+        <v>0.6944570264822121</v>
       </c>
       <c r="J4">
-        <v>0.3937234314704692</v>
+        <v>0.6944570264822121</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.948048</v>
+        <v>28.525746</v>
       </c>
       <c r="N4">
-        <v>44.844144</v>
+        <v>85.57723799999999</v>
       </c>
       <c r="O4">
-        <v>0.1477389942931862</v>
+        <v>0.2380418734454457</v>
       </c>
       <c r="P4">
-        <v>0.1477389942931862</v>
+        <v>0.2380418734454457</v>
       </c>
       <c r="Q4">
-        <v>4.003007531477333</v>
+        <v>7.639042641487999</v>
       </c>
       <c r="R4">
-        <v>36.027067783296</v>
+        <v>68.75138377339199</v>
       </c>
       <c r="S4">
-        <v>0.05816830379510934</v>
+        <v>0.1653098516111793</v>
       </c>
       <c r="T4">
-        <v>0.05816830379510934</v>
+        <v>0.1653098516111793</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>0.803384</v>
       </c>
       <c r="I5">
-        <v>0.3937234314704692</v>
+        <v>0.6944570264822121</v>
       </c>
       <c r="J5">
-        <v>0.3937234314704692</v>
+        <v>0.6944570264822121</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.08293366666666667</v>
+        <v>0.1534046666666667</v>
       </c>
       <c r="N5">
-        <v>0.248801</v>
+        <v>0.460214</v>
       </c>
       <c r="O5">
-        <v>0.0008196746830341778</v>
+        <v>0.001280132489737778</v>
       </c>
       <c r="P5">
-        <v>0.0008196746830341778</v>
+        <v>0.001280132489737778</v>
       </c>
       <c r="Q5">
-        <v>0.02220919362044445</v>
+        <v>0.04108095157511111</v>
       </c>
       <c r="R5">
-        <v>0.199882742584</v>
+        <v>0.369728564176</v>
       </c>
       <c r="S5">
-        <v>0.0003227251288936857</v>
+        <v>0.000888997002326568</v>
       </c>
       <c r="T5">
-        <v>0.0003227251288936857</v>
+        <v>0.000888997002326568</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,22 +779,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.4123646666666667</v>
+        <v>0.1178226666666667</v>
       </c>
       <c r="H6">
-        <v>1.237094</v>
+        <v>0.353468</v>
       </c>
       <c r="I6">
-        <v>0.6062765685295308</v>
+        <v>0.3055429735177879</v>
       </c>
       <c r="J6">
-        <v>0.6062765685295308</v>
+        <v>0.3055429735177879</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.68145933333333</v>
+        <v>28.689524</v>
       </c>
       <c r="N6">
-        <v>71.04437799999999</v>
+        <v>86.06857199999999</v>
       </c>
       <c r="O6">
-        <v>0.2340556429375698</v>
+        <v>0.2394085694101769</v>
       </c>
       <c r="P6">
-        <v>0.2340556429375698</v>
+        <v>0.2394085694101769</v>
       </c>
       <c r="Q6">
-        <v>9.765397084170221</v>
+        <v>3.380276223077333</v>
       </c>
       <c r="R6">
-        <v>87.88857375753199</v>
+        <v>30.422486007696</v>
       </c>
       <c r="S6">
-        <v>0.1419024520451629</v>
+        <v>0.07314960618322518</v>
       </c>
       <c r="T6">
-        <v>0.1419024520451629</v>
+        <v>0.07314960618322518</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,22 +841,22 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.4123646666666667</v>
+        <v>0.1178226666666667</v>
       </c>
       <c r="H7">
-        <v>1.237094</v>
+        <v>0.353468</v>
       </c>
       <c r="I7">
-        <v>0.6062765685295308</v>
+        <v>0.3055429735177879</v>
       </c>
       <c r="J7">
-        <v>0.6062765685295308</v>
+        <v>0.3055429735177879</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>187.398952</v>
       </c>
       <c r="O7">
-        <v>0.6173856880862099</v>
+        <v>0.5212694246546397</v>
       </c>
       <c r="P7">
-        <v>0.6173856880862099</v>
+        <v>0.5212694246546395</v>
       </c>
       <c r="Q7">
-        <v>25.75890212505422</v>
+        <v>7.359948085059556</v>
       </c>
       <c r="R7">
-        <v>231.830119125488</v>
+        <v>66.239532765536</v>
       </c>
       <c r="S7">
-        <v>0.3743064764321505</v>
+        <v>0.1592702100128851</v>
       </c>
       <c r="T7">
-        <v>0.3743064764321505</v>
+        <v>0.1592702100128851</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,22 +903,22 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.4123646666666667</v>
+        <v>0.1178226666666667</v>
       </c>
       <c r="H8">
-        <v>1.237094</v>
+        <v>0.353468</v>
       </c>
       <c r="I8">
-        <v>0.6062765685295308</v>
+        <v>0.3055429735177879</v>
       </c>
       <c r="J8">
-        <v>0.6062765685295308</v>
+        <v>0.3055429735177879</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.948048</v>
+        <v>28.525746</v>
       </c>
       <c r="N8">
-        <v>44.844144</v>
+        <v>85.57723799999999</v>
       </c>
       <c r="O8">
-        <v>0.1477389942931862</v>
+        <v>0.2380418734454457</v>
       </c>
       <c r="P8">
-        <v>0.1477389942931862</v>
+        <v>0.2380418734454457</v>
       </c>
       <c r="Q8">
-        <v>6.164046830837333</v>
+        <v>3.360979462376</v>
       </c>
       <c r="R8">
-        <v>55.47642147753599</v>
+        <v>30.248815161384</v>
       </c>
       <c r="S8">
-        <v>0.08957069049807687</v>
+        <v>0.07273202183426644</v>
       </c>
       <c r="T8">
-        <v>0.08957069049807687</v>
+        <v>0.07273202183426644</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.4123646666666667</v>
+        <v>0.1178226666666667</v>
       </c>
       <c r="H9">
-        <v>1.237094</v>
+        <v>0.353468</v>
       </c>
       <c r="I9">
-        <v>0.6062765685295308</v>
+        <v>0.3055429735177879</v>
       </c>
       <c r="J9">
-        <v>0.6062765685295308</v>
+        <v>0.3055429735177879</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.08293366666666667</v>
+        <v>0.1534046666666667</v>
       </c>
       <c r="N9">
-        <v>0.248801</v>
+        <v>0.460214</v>
       </c>
       <c r="O9">
-        <v>0.0008196746830341778</v>
+        <v>0.001280132489737778</v>
       </c>
       <c r="P9">
-        <v>0.0008196746830341778</v>
+        <v>0.001280132489737778</v>
       </c>
       <c r="Q9">
-        <v>0.03419891381044445</v>
+        <v>0.01807454690577778</v>
       </c>
       <c r="R9">
-        <v>0.307790224294</v>
+        <v>0.162670922152</v>
       </c>
       <c r="S9">
-        <v>0.0004969495541404922</v>
+        <v>0.0003911354874112097</v>
       </c>
       <c r="T9">
-        <v>0.0004969495541404922</v>
+        <v>0.0003911354874112097</v>
       </c>
     </row>
   </sheetData>
